--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Метод</t>
   </si>
@@ -63,13 +63,19 @@
     <t>Дерево префиксов</t>
   </si>
   <si>
-    <t>Динамический метод</t>
-  </si>
-  <si>
     <t>невозможно</t>
   </si>
   <si>
     <t>нет замеров</t>
+  </si>
+  <si>
+    <t>Обобщенная динамический метод</t>
+  </si>
+  <si>
+    <t>l=20</t>
+  </si>
+  <si>
+    <t>Обобщенная хеш пар</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -163,21 +169,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -466,42 +457,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,50 +664,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,169 +998,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H22" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="7" width="12.28515625" customWidth="1"/>
+    <col min="3" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="H1" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="6">
         <v>58</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>12538</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28" t="s">
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="7">
         <v>79.814999999999998</v>
       </c>
       <c r="D3" s="1">
         <v>22416.7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="8">
         <v>106</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>27782</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="6">
         <v>1256</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>1279</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="28" t="s">
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="7">
         <v>1315.89</v>
       </c>
       <c r="D6" s="1">
         <v>1380.31</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="29" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="8">
         <v>1469</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>1581</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="6">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>28</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="34">
         <v>80</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="34">
         <v>100</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="35">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="28" t="s">
+      <c r="H8" s="31">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="7">
         <v>16.100000000000001</v>
       </c>
       <c r="D9" s="1">
@@ -1034,109 +1184,121 @@
       <c r="F9" s="1">
         <v>118.96899999999999</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="27">
         <v>137.75800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29" t="s">
+      <c r="H9" s="29">
+        <v>307.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="8">
         <v>37</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>55</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>117</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>159</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="28">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="H10" s="30">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="6">
         <v>370</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>1339</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="28" t="s">
+      <c r="E11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="7">
         <v>417.62200000000001</v>
       </c>
       <c r="D12" s="1">
         <v>1456.78</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="8">
         <v>486</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>1586</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="34">
         <v>65</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="34">
         <v>279</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="35">
         <v>504</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="28" t="s">
+      <c r="H14" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="7">
         <v>2.1070000000000002</v>
       </c>
       <c r="D15" s="1">
@@ -1148,102 +1310,189 @@
       <c r="F15" s="1">
         <v>331.87700000000001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="27">
         <v>574.53800000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29" t="s">
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>26</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>166</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>413</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="28">
         <v>721</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="19">
-        <v>236</v>
-      </c>
-      <c r="D17" s="4">
-        <v>240</v>
-      </c>
-      <c r="E17" s="4">
-        <v>243</v>
-      </c>
-      <c r="F17" s="4">
-        <v>241</v>
-      </c>
-      <c r="G17" s="5">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="28" t="s">
+      <c r="C17" s="6">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>40</v>
+      </c>
+      <c r="G17" s="26">
+        <v>34</v>
+      </c>
+      <c r="H17" s="31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="20">
-        <v>277.83100000000002</v>
+      <c r="C18" s="7">
+        <v>14.907</v>
       </c>
       <c r="D18" s="1">
-        <v>290.13799999999998</v>
+        <v>26.952999999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>283.815</v>
+        <v>38.307000000000002</v>
       </c>
       <c r="F18" s="1">
-        <v>279.95400000000001</v>
-      </c>
-      <c r="G18" s="6">
-        <v>284.69200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="29" t="s">
+        <v>50.215000000000003</v>
+      </c>
+      <c r="G18" s="27">
+        <v>55.984000000000002</v>
+      </c>
+      <c r="H18" s="29">
+        <v>95.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21">
-        <v>356</v>
-      </c>
-      <c r="D19" s="7">
-        <v>363</v>
-      </c>
-      <c r="E19" s="7">
-        <v>344</v>
-      </c>
-      <c r="F19" s="7">
-        <v>363</v>
-      </c>
-      <c r="G19" s="8">
-        <v>368</v>
+      <c r="C19" s="8">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3">
+        <v>68</v>
+      </c>
+      <c r="G19" s="28">
+        <v>44</v>
+      </c>
+      <c r="H19" s="30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2">
+        <v>71</v>
+      </c>
+      <c r="G20" s="26">
+        <v>86</v>
+      </c>
+      <c r="H20" s="31">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
+        <v>14.569000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>33.03</v>
+      </c>
+      <c r="E21" s="1">
+        <v>59.122999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>86.83</v>
+      </c>
+      <c r="G21" s="27">
+        <v>117.646</v>
+      </c>
+      <c r="H21" s="29">
+        <v>306.69200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3">
+        <v>104</v>
+      </c>
+      <c r="G22" s="28">
+        <v>154</v>
+      </c>
+      <c r="H22" s="30">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E2:H4"/>
+    <mergeCell ref="E5:H7"/>
+    <mergeCell ref="E11:H13"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="E11:G13"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="17235" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="17235" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Метод</t>
   </si>
@@ -75,14 +75,94 @@
     <t>l=20</t>
   </si>
   <si>
-    <t>Обобщенная хеш пар</t>
+    <t>Обобщенная прямой подсчет</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>х</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +171,45 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -583,11 +692,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -627,42 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -688,6 +894,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,6 +939,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1000,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
@@ -1030,15 +1289,15 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1050,15 +1309,15 @@
       <c r="D2" s="2">
         <v>12538</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1068,13 +1327,13 @@
       <c r="D3" s="1">
         <v>22416.7</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1084,13 +1343,13 @@
       <c r="D4" s="3">
         <v>27782</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1102,15 +1361,15 @@
       <c r="D5" s="2">
         <v>1279</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1120,13 +1379,13 @@
       <c r="D6" s="1">
         <v>1380.31</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1136,13 +1395,13 @@
       <c r="D7" s="3">
         <v>1581</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1154,21 +1413,21 @@
       <c r="D8" s="2">
         <v>28</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="22">
         <v>80</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="22">
         <v>100</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="23">
         <v>115</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="19">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1184,15 +1443,15 @@
       <c r="F9" s="1">
         <v>118.96899999999999</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="15">
         <v>137.75800000000001</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="17">
         <v>307.60000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1208,15 +1467,15 @@
       <c r="F10" s="3">
         <v>159</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="16">
         <v>180</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="18">
         <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1228,15 +1487,15 @@
       <c r="D11" s="2">
         <v>1339</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
@@ -1246,13 +1505,13 @@
       <c r="D12" s="1">
         <v>1456.78</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
@@ -1262,13 +1521,13 @@
       <c r="D13" s="3">
         <v>1586</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1280,13 +1539,13 @@
       <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="22">
         <v>65</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="22">
         <v>279</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="23">
         <v>504</v>
       </c>
       <c r="H14" s="36" t="s">
@@ -1294,7 +1553,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1310,13 +1569,13 @@
       <c r="F15" s="1">
         <v>331.87700000000001</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="15">
         <v>574.53800000000001</v>
       </c>
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
@@ -1332,13 +1591,13 @@
       <c r="F16" s="3">
         <v>413</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="16">
         <v>721</v>
       </c>
       <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1356,15 +1615,15 @@
       <c r="F17" s="2">
         <v>40</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="14">
         <v>34</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="19">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
@@ -1380,15 +1639,15 @@
       <c r="F18" s="1">
         <v>50.215000000000003</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="15">
         <v>55.984000000000002</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="17">
         <v>95.23</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
@@ -1404,15 +1663,15 @@
       <c r="F19" s="3">
         <v>68</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="16">
         <v>44</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="18">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1430,15 +1689,15 @@
       <c r="F20" s="2">
         <v>71</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="14">
         <v>86</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="19">
         <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="12" t="s">
         <v>8</v>
       </c>
@@ -1454,15 +1713,15 @@
       <c r="F21" s="1">
         <v>86.83</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="15">
         <v>117.646</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="17">
         <v>306.69200000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1478,10 +1737,10 @@
       <c r="F22" s="3">
         <v>104</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="16">
         <v>154</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="18">
         <v>359</v>
       </c>
     </row>
@@ -1506,13 +1765,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="39"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="39"/>
+      <c r="O3" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+    </row>
+    <row r="4" spans="2:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="39"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+    </row>
+    <row r="5" spans="2:24" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="41"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+    </row>
+    <row r="6" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="41"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+    </row>
+    <row r="7" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="41"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+    </row>
+    <row r="9" spans="2:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="39"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+    </row>
+    <row r="10" spans="2:24" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+    </row>
+    <row r="11" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
